--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\UiPath\FilaPedidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B69697-4D04-4BA7-AFF1-A05CD6CBD00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CCC58D-2837-4737-961E-301BB1FB2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="322" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="254">
   <si>
     <t>Nome</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Placa</t>
   </si>
   <si>
-    <t>Renavan</t>
+    <t>Renavam</t>
   </si>
   <si>
     <t>Status</t>
@@ -50,673 +50,739 @@
     <t>Justificativa</t>
   </si>
   <si>
-    <t>Patricia Lima</t>
+    <t>Natália Souza</t>
   </si>
   <si>
     <t>Feminino</t>
   </si>
   <si>
-    <t>52107705010</t>
-  </si>
-  <si>
-    <t>5685563</t>
+    <t>65674142454</t>
   </si>
   <si>
     <t>Compass</t>
   </si>
   <si>
-    <t>EBW4239</t>
-  </si>
-  <si>
-    <t>Maria Lima</t>
+    <t xml:space="preserve">RRD6R13  </t>
+  </si>
+  <si>
+    <t>17917035633</t>
+  </si>
+  <si>
+    <t>Marcos Uchoa</t>
+  </si>
+  <si>
+    <t>52550805624</t>
+  </si>
+  <si>
+    <t>837718465</t>
+  </si>
+  <si>
+    <t>Toro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OYK5I08  </t>
+  </si>
+  <si>
+    <t>46448796851</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>72029263095</t>
-  </si>
-  <si>
-    <t>8836345</t>
-  </si>
-  <si>
-    <t>Toro</t>
-  </si>
-  <si>
-    <t>ALB2542</t>
-  </si>
-  <si>
-    <t>233906457</t>
-  </si>
-  <si>
-    <t>Fabiana Pereira</t>
-  </si>
-  <si>
-    <t>65890377016</t>
-  </si>
-  <si>
-    <t>7928062</t>
-  </si>
-  <si>
-    <t>RWQ9321</t>
-  </si>
-  <si>
-    <t>526568080</t>
-  </si>
-  <si>
-    <t>Renata Silva</t>
-  </si>
-  <si>
-    <t>52935215206</t>
-  </si>
-  <si>
-    <t>3872108</t>
-  </si>
-  <si>
-    <t>CAD6521</t>
-  </si>
-  <si>
-    <t>625489639</t>
-  </si>
-  <si>
-    <t>Felipe Lima</t>
-  </si>
-  <si>
-    <t>89442597124</t>
-  </si>
-  <si>
-    <t>3771739</t>
+    <t>58849458416</t>
+  </si>
+  <si>
+    <t>425145569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTR2R63  </t>
+  </si>
+  <si>
+    <t>18892035922</t>
+  </si>
+  <si>
+    <t>Larissa Yamada</t>
+  </si>
+  <si>
+    <t>75641425539</t>
+  </si>
+  <si>
+    <t>502593652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YQX1X24  </t>
+  </si>
+  <si>
+    <t>72467316329</t>
+  </si>
+  <si>
+    <t>Otávio Medeiros</t>
+  </si>
+  <si>
+    <t>63979043651</t>
+  </si>
+  <si>
+    <t>405781000</t>
   </si>
   <si>
     <t>HB20</t>
   </si>
   <si>
-    <t>UDX4346</t>
-  </si>
-  <si>
-    <t>639742930</t>
-  </si>
-  <si>
-    <t>Patricia Silva</t>
-  </si>
-  <si>
-    <t>29973129471</t>
+    <t xml:space="preserve">CNN7N72  </t>
+  </si>
+  <si>
+    <t>Natália Lopes</t>
+  </si>
+  <si>
+    <t>860208878</t>
   </si>
   <si>
     <t>Uno</t>
   </si>
   <si>
-    <t>YKQ9621</t>
-  </si>
-  <si>
-    <t>848849849</t>
-  </si>
-  <si>
-    <t>Camila Souza</t>
-  </si>
-  <si>
-    <t>8624558</t>
-  </si>
-  <si>
-    <t>VNP1967</t>
-  </si>
-  <si>
-    <t>Carlos Oliveira</t>
-  </si>
-  <si>
-    <t>25348921679</t>
-  </si>
-  <si>
-    <t>7528255</t>
-  </si>
-  <si>
-    <t>OCP4660</t>
-  </si>
-  <si>
-    <t>983361329</t>
-  </si>
-  <si>
-    <t>Renata Lima</t>
-  </si>
-  <si>
-    <t>10780198847</t>
-  </si>
-  <si>
-    <t>6315412</t>
+    <t xml:space="preserve">DNY6Y42  </t>
+  </si>
+  <si>
+    <t>02961616155</t>
+  </si>
+  <si>
+    <t>Ursula Ribeiro</t>
+  </si>
+  <si>
+    <t>86720579390</t>
+  </si>
+  <si>
+    <t>022810649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IZW5Z21  </t>
+  </si>
+  <si>
+    <t>02922614366</t>
+  </si>
+  <si>
+    <t>Vinicius Uchoa</t>
+  </si>
+  <si>
+    <t>98774041434</t>
+  </si>
+  <si>
+    <t>927221030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUO3U38  </t>
+  </si>
+  <si>
+    <t>95027517763</t>
+  </si>
+  <si>
+    <t>Thiago Yamada</t>
+  </si>
+  <si>
+    <t>43372773366</t>
+  </si>
+  <si>
+    <t>636534486</t>
   </si>
   <si>
     <t>Corolla</t>
   </si>
   <si>
-    <t>JXN3591</t>
-  </si>
-  <si>
-    <t>221271633</t>
-  </si>
-  <si>
-    <t>Matheus Pereira</t>
-  </si>
-  <si>
-    <t>64809759405</t>
-  </si>
-  <si>
-    <t>1188729</t>
+    <t xml:space="preserve">OFC8C06  </t>
+  </si>
+  <si>
+    <t>23505490326</t>
+  </si>
+  <si>
+    <t>Quésia Barros</t>
+  </si>
+  <si>
+    <t>Fem</t>
+  </si>
+  <si>
+    <t>51546383667</t>
+  </si>
+  <si>
+    <t>625008219</t>
   </si>
   <si>
     <t>Argo</t>
   </si>
   <si>
-    <t>BIY5651</t>
-  </si>
-  <si>
-    <t>651766559</t>
-  </si>
-  <si>
-    <t>Vinicius Oliveira</t>
-  </si>
-  <si>
-    <t>44337832500</t>
-  </si>
-  <si>
-    <t>9848867</t>
-  </si>
-  <si>
-    <t>SNF5408</t>
-  </si>
-  <si>
-    <t>896458595</t>
-  </si>
-  <si>
-    <t>Felipe Santos</t>
-  </si>
-  <si>
-    <t>82694265128</t>
-  </si>
-  <si>
-    <t>YBY5857</t>
-  </si>
-  <si>
-    <t>510783883</t>
-  </si>
-  <si>
-    <t>Juliana Lima</t>
-  </si>
-  <si>
-    <t>83145349172</t>
-  </si>
-  <si>
-    <t>FVI6876</t>
-  </si>
-  <si>
-    <t>775655426</t>
-  </si>
-  <si>
-    <t>Marcos Santos</t>
-  </si>
-  <si>
-    <t>89277035777</t>
-  </si>
-  <si>
-    <t>2656946</t>
+    <t xml:space="preserve">UXB7B86  </t>
+  </si>
+  <si>
+    <t>80879502917</t>
+  </si>
+  <si>
+    <t>Ana Jardim</t>
+  </si>
+  <si>
+    <t>04799685871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WLG6G94  </t>
+  </si>
+  <si>
+    <t>89856981217</t>
+  </si>
+  <si>
+    <t>Larissa Ferreira</t>
+  </si>
+  <si>
+    <t>89528925698</t>
+  </si>
+  <si>
+    <t>868895781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGC2G64  </t>
+  </si>
+  <si>
+    <t>10896023777</t>
+  </si>
+  <si>
+    <t>68464431999</t>
+  </si>
+  <si>
+    <t>070955678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDQ1Q68  </t>
+  </si>
+  <si>
+    <t>91792100789</t>
+  </si>
+  <si>
+    <t>Bruno Ribeiro</t>
+  </si>
+  <si>
+    <t>27898514590</t>
+  </si>
+  <si>
+    <t>293506005</t>
   </si>
   <si>
     <t>Civic</t>
   </si>
   <si>
-    <t>RFP1708</t>
-  </si>
-  <si>
-    <t>455403456</t>
-  </si>
-  <si>
-    <t>Camila Pereira</t>
-  </si>
-  <si>
-    <t>97158864391</t>
-  </si>
-  <si>
-    <t>5920915</t>
-  </si>
-  <si>
-    <t>NYD4803</t>
-  </si>
-  <si>
-    <t>Fernanda Souza</t>
-  </si>
-  <si>
-    <t>34147106959</t>
-  </si>
-  <si>
-    <t>7654226</t>
-  </si>
-  <si>
-    <t>FTX5491</t>
-  </si>
-  <si>
-    <t>174795105</t>
-  </si>
-  <si>
-    <t>Rafael Santos</t>
-  </si>
-  <si>
-    <t>96619490893</t>
-  </si>
-  <si>
-    <t>2974945</t>
-  </si>
-  <si>
-    <t>INV591</t>
-  </si>
-  <si>
-    <t>958984318</t>
-  </si>
-  <si>
-    <t>Vinicius Souza</t>
-  </si>
-  <si>
-    <t>38779159355</t>
-  </si>
-  <si>
-    <t>7540022</t>
-  </si>
-  <si>
-    <t>ADZ6516</t>
-  </si>
-  <si>
-    <t>714747651</t>
-  </si>
-  <si>
-    <t>Thiago Oliveira</t>
-  </si>
-  <si>
-    <t>80977170463</t>
-  </si>
-  <si>
-    <t>9001442</t>
-  </si>
-  <si>
-    <t>NZY8976</t>
-  </si>
-  <si>
-    <t>987511942</t>
-  </si>
-  <si>
-    <t>52099456660</t>
-  </si>
-  <si>
-    <t>3925454</t>
-  </si>
-  <si>
-    <t>UPC1358</t>
-  </si>
-  <si>
-    <t>808159864</t>
-  </si>
-  <si>
-    <t>Marcos Silva</t>
-  </si>
-  <si>
-    <t>3777065</t>
-  </si>
-  <si>
-    <t>XSS1732</t>
-  </si>
-  <si>
-    <t>315289757</t>
-  </si>
-  <si>
-    <t>Carlos Lima</t>
-  </si>
-  <si>
-    <t>98172199289</t>
-  </si>
-  <si>
-    <t>JQS4447</t>
-  </si>
-  <si>
-    <t>544106353</t>
-  </si>
-  <si>
-    <t>48883030217</t>
-  </si>
-  <si>
-    <t>5026429</t>
-  </si>
-  <si>
-    <t>HUO7417</t>
-  </si>
-  <si>
-    <t>Maria Santos</t>
-  </si>
-  <si>
-    <t>6699026</t>
+    <t xml:space="preserve">GL </t>
+  </si>
+  <si>
+    <t>89560538998</t>
+  </si>
+  <si>
+    <t>Wellington Klein</t>
+  </si>
+  <si>
+    <t>194756083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKC5K69  </t>
+  </si>
+  <si>
+    <t>27311193904</t>
+  </si>
+  <si>
+    <t>Xuxa Ribeiro</t>
+  </si>
+  <si>
+    <t>88673159820</t>
+  </si>
+  <si>
+    <t>120132296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAU5U47  </t>
+  </si>
+  <si>
+    <t>Yasmin Gonçalves</t>
+  </si>
+  <si>
+    <t>76732438793</t>
+  </si>
+  <si>
+    <t>999793081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UEU9E28  </t>
+  </si>
+  <si>
+    <t>32266728001</t>
+  </si>
+  <si>
+    <t>Bruno Lopes</t>
+  </si>
+  <si>
+    <t>50683602704</t>
+  </si>
+  <si>
+    <t>143899836</t>
+  </si>
+  <si>
+    <t>JWA</t>
+  </si>
+  <si>
+    <t>61671376646</t>
+  </si>
+  <si>
+    <t>Sabrina Xavier</t>
+  </si>
+  <si>
+    <t>17428923816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPO8O31  </t>
+  </si>
+  <si>
+    <t>67545738303</t>
+  </si>
+  <si>
+    <t>Rafael Xavier</t>
+  </si>
+  <si>
+    <t>86111570508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMV3V67  </t>
+  </si>
+  <si>
+    <t>48324077616</t>
+  </si>
+  <si>
+    <t>93669088784</t>
+  </si>
+  <si>
+    <t>172506245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERW6W70  </t>
+  </si>
+  <si>
+    <t>13493870420</t>
+  </si>
+  <si>
+    <t>48895465232</t>
+  </si>
+  <si>
+    <t>026376201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLF6F93  </t>
+  </si>
+  <si>
+    <t>87185134258</t>
+  </si>
+  <si>
+    <t>Helena Oliveira</t>
+  </si>
+  <si>
+    <t>51926249263</t>
+  </si>
+  <si>
+    <t>369297642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YGE3G65  </t>
+  </si>
+  <si>
+    <t>09513448430</t>
+  </si>
+  <si>
+    <t>Carlos Dias</t>
+  </si>
+  <si>
+    <t>92577546644</t>
+  </si>
+  <si>
+    <t>937609733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIL9L43  </t>
+  </si>
+  <si>
+    <t>26790625241</t>
+  </si>
+  <si>
+    <t>Rafael Ribeiro</t>
+  </si>
+  <si>
+    <t>56674159304</t>
+  </si>
+  <si>
+    <t>584454225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNK5K15  </t>
+  </si>
+  <si>
+    <t>10524566422</t>
+  </si>
+  <si>
+    <t>Ursula Oliveira</t>
+  </si>
+  <si>
+    <t>89154793073</t>
+  </si>
+  <si>
+    <t>648219074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFN4N76  </t>
+  </si>
+  <si>
+    <t>Ursula Pereira</t>
+  </si>
+  <si>
+    <t>98507969142</t>
+  </si>
+  <si>
+    <t>737083427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NXJ6J09  </t>
+  </si>
+  <si>
+    <t>12578608702</t>
+  </si>
+  <si>
+    <t>Fernanda Queiroz</t>
+  </si>
+  <si>
+    <t>Masc</t>
+  </si>
+  <si>
+    <t>76163236948</t>
+  </si>
+  <si>
+    <t>895611451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUR6R76  </t>
+  </si>
+  <si>
+    <t>91047208328</t>
+  </si>
+  <si>
+    <t>Rafael Barros</t>
+  </si>
+  <si>
+    <t>75472709271</t>
+  </si>
+  <si>
+    <t>087755908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDY6Y49  </t>
+  </si>
+  <si>
+    <t>44032907695</t>
+  </si>
+  <si>
+    <t>Fernanda Medeiros</t>
+  </si>
+  <si>
+    <t>61930696174</t>
+  </si>
+  <si>
+    <t>479889230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGN0N66  </t>
+  </si>
+  <si>
+    <t>81256417323</t>
+  </si>
+  <si>
+    <t>71317255568</t>
+  </si>
+  <si>
+    <t>134954247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOO4O48  </t>
+  </si>
+  <si>
+    <t>00735287668</t>
+  </si>
+  <si>
+    <t>Ursula Souza</t>
+  </si>
+  <si>
+    <t>66039545774</t>
+  </si>
+  <si>
+    <t>253654900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEC7C74  </t>
+  </si>
+  <si>
+    <t>34487404855</t>
+  </si>
+  <si>
+    <t>Sabrina Oliveira</t>
+  </si>
+  <si>
+    <t>33131822601</t>
+  </si>
+  <si>
+    <t>522410417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBH5H55  </t>
+  </si>
+  <si>
+    <t>57871155151</t>
+  </si>
+  <si>
+    <t>Patrícia Ibrahim</t>
+  </si>
+  <si>
+    <t>19038414124</t>
+  </si>
+  <si>
+    <t>239412703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITT0T61  </t>
+  </si>
+  <si>
+    <t>00799517458</t>
+  </si>
+  <si>
+    <t>Helena Jardim</t>
+  </si>
+  <si>
+    <t>42834908701</t>
+  </si>
+  <si>
+    <t>754663871</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QXF6F41  </t>
+  </si>
+  <si>
+    <t>56394022642</t>
+  </si>
+  <si>
+    <t>Wellington Esteves</t>
+  </si>
+  <si>
+    <t>56117066970</t>
+  </si>
+  <si>
+    <t>295993791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER4R83  </t>
+  </si>
+  <si>
+    <t>11135586339</t>
+  </si>
+  <si>
+    <t>Larissa Queiroz</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>35964833683</t>
+  </si>
+  <si>
+    <t>265111478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JYU3U44  </t>
+  </si>
+  <si>
+    <t>09580124646</t>
+  </si>
+  <si>
+    <t>Ana Ibrahim</t>
+  </si>
+  <si>
+    <t>81074523371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSI1S59  </t>
+  </si>
+  <si>
+    <t>90956412437</t>
+  </si>
+  <si>
+    <t>Quésia Yamada</t>
+  </si>
+  <si>
+    <t>36179051757</t>
+  </si>
+  <si>
+    <t>284681661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOV5V86  </t>
+  </si>
+  <si>
+    <t>45681981436</t>
+  </si>
+  <si>
+    <t>Quésia Dias</t>
+  </si>
+  <si>
+    <t>07026201624</t>
+  </si>
+  <si>
+    <t>967615104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCA2C24  </t>
+  </si>
+  <si>
+    <t>36044106027</t>
+  </si>
+  <si>
+    <t>Larissa Klein</t>
+  </si>
+  <si>
+    <t>79481989116</t>
+  </si>
+  <si>
+    <t>711422196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YCA2C13  </t>
+  </si>
+  <si>
+    <t>04784959930</t>
+  </si>
+  <si>
+    <t>Vinicius Vieira</t>
+  </si>
+  <si>
+    <t>695437289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHV4V65  </t>
+  </si>
+  <si>
+    <t>03003699268</t>
+  </si>
+  <si>
+    <t>Larissa Vieira</t>
+  </si>
+  <si>
+    <t>25716570905</t>
+  </si>
+  <si>
+    <t>580479391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VZZ1Z97  </t>
+  </si>
+  <si>
+    <t>00126867094</t>
+  </si>
+  <si>
+    <t>Natália Dias</t>
+  </si>
+  <si>
+    <t>65228854581</t>
+  </si>
+  <si>
+    <t>006590650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG3G24  </t>
+  </si>
+  <si>
+    <t>38679427298</t>
+  </si>
+  <si>
+    <t>Ursula Ferreira</t>
+  </si>
+  <si>
+    <t>38899380860</t>
+  </si>
+  <si>
+    <t>327989754</t>
   </si>
   <si>
     <t>Gol</t>
   </si>
   <si>
-    <t>PIF2547</t>
-  </si>
-  <si>
-    <t>859832985</t>
-  </si>
-  <si>
-    <t>Felipe Pereira</t>
-  </si>
-  <si>
-    <t>51330245299</t>
-  </si>
-  <si>
-    <t>9809815</t>
-  </si>
-  <si>
-    <t>CCD4824</t>
-  </si>
-  <si>
-    <t>197753237</t>
-  </si>
-  <si>
-    <t>Larissa Santos</t>
-  </si>
-  <si>
-    <t>96642513893</t>
-  </si>
-  <si>
-    <t>VXY3103</t>
-  </si>
-  <si>
-    <t>301220850</t>
-  </si>
-  <si>
-    <t>Thiago Santos</t>
-  </si>
-  <si>
-    <t>LED1719</t>
-  </si>
-  <si>
-    <t>86748889611</t>
-  </si>
-  <si>
-    <t>3370760</t>
-  </si>
-  <si>
-    <t>INV730</t>
-  </si>
-  <si>
-    <t>551987213</t>
-  </si>
-  <si>
-    <t>86520312721</t>
-  </si>
-  <si>
-    <t>5718206</t>
-  </si>
-  <si>
-    <t>NAG3932</t>
-  </si>
-  <si>
-    <t>Ana Silva</t>
-  </si>
-  <si>
-    <t>8607970</t>
-  </si>
-  <si>
-    <t>OQK2155</t>
-  </si>
-  <si>
-    <t>549511556</t>
-  </si>
-  <si>
-    <t>Ana Souza</t>
-  </si>
-  <si>
-    <t>7642910</t>
-  </si>
-  <si>
-    <t>SHP9099</t>
-  </si>
-  <si>
-    <t>694887057</t>
-  </si>
-  <si>
-    <t>Carlos Pereira</t>
-  </si>
-  <si>
-    <t>63072443031</t>
-  </si>
-  <si>
-    <t>1892951</t>
-  </si>
-  <si>
-    <t>CAK8830</t>
-  </si>
-  <si>
-    <t>719728030</t>
-  </si>
-  <si>
-    <t>Sofia Santos</t>
-  </si>
-  <si>
-    <t>DAP4356</t>
-  </si>
-  <si>
-    <t>766868601</t>
-  </si>
-  <si>
-    <t>Renata Pereira</t>
-  </si>
-  <si>
-    <t>48360863796</t>
-  </si>
-  <si>
-    <t>8990792</t>
-  </si>
-  <si>
-    <t>WOI8419</t>
-  </si>
-  <si>
-    <t>435890933</t>
-  </si>
-  <si>
-    <t>Ricardo Oliveira</t>
-  </si>
-  <si>
-    <t>47854719163</t>
-  </si>
-  <si>
-    <t>6571357</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>FBA2240</t>
-  </si>
-  <si>
-    <t>778134455</t>
-  </si>
-  <si>
-    <t>Thiago Silva</t>
-  </si>
-  <si>
-    <t>91752863740</t>
-  </si>
-  <si>
-    <t>9519014</t>
-  </si>
-  <si>
-    <t>LUS1000</t>
-  </si>
-  <si>
-    <t>254262936</t>
-  </si>
-  <si>
-    <t>Patricia Souza</t>
-  </si>
-  <si>
-    <t>19204245806</t>
-  </si>
-  <si>
-    <t>DUR4011</t>
-  </si>
-  <si>
-    <t>Matheus Silva</t>
-  </si>
-  <si>
-    <t>84702275373</t>
-  </si>
-  <si>
-    <t>7794492</t>
-  </si>
-  <si>
-    <t>INV181</t>
-  </si>
-  <si>
-    <t>Ricardo Souza</t>
-  </si>
-  <si>
-    <t>28279468058</t>
-  </si>
-  <si>
-    <t>7629196</t>
-  </si>
-  <si>
-    <t>BQX6010</t>
-  </si>
-  <si>
-    <t>367951138</t>
-  </si>
-  <si>
-    <t>Fabiana Silva</t>
-  </si>
-  <si>
-    <t>18271994889</t>
-  </si>
-  <si>
-    <t>RIF7170</t>
-  </si>
-  <si>
-    <t>851064895</t>
-  </si>
-  <si>
-    <t>Thiago Pereira</t>
-  </si>
-  <si>
-    <t>39272350346</t>
-  </si>
-  <si>
-    <t>2627194</t>
-  </si>
-  <si>
-    <t>INV857</t>
-  </si>
-  <si>
-    <t>Sofia Lima</t>
-  </si>
-  <si>
-    <t>27335717328</t>
-  </si>
-  <si>
-    <t>FAP2604</t>
-  </si>
-  <si>
-    <t>Sofia Oliveira</t>
-  </si>
-  <si>
-    <t>6709011</t>
-  </si>
-  <si>
-    <t>EOK6222</t>
-  </si>
-  <si>
-    <t>841745586</t>
-  </si>
-  <si>
-    <t>Larissa Oliveira</t>
-  </si>
-  <si>
-    <t>58936835831</t>
-  </si>
-  <si>
-    <t>4867306</t>
-  </si>
-  <si>
-    <t>YFZ1413</t>
-  </si>
-  <si>
-    <t>274243582</t>
-  </si>
-  <si>
-    <t>Ana Santos</t>
-  </si>
-  <si>
-    <t>37993642700</t>
-  </si>
-  <si>
-    <t>1595440</t>
-  </si>
-  <si>
-    <t>INV221</t>
-  </si>
-  <si>
-    <t>831460384</t>
-  </si>
-  <si>
-    <t>João Oliveira</t>
-  </si>
-  <si>
-    <t>66988046301</t>
-  </si>
-  <si>
-    <t>4343485</t>
-  </si>
-  <si>
-    <t>YYK2140</t>
-  </si>
-  <si>
-    <t>Marcos Souza</t>
-  </si>
-  <si>
-    <t>48350183054</t>
-  </si>
-  <si>
-    <t>9917847</t>
-  </si>
-  <si>
-    <t>INV310</t>
-  </si>
-  <si>
-    <t>Leandro Pereira</t>
-  </si>
-  <si>
-    <t>20922026913</t>
-  </si>
-  <si>
-    <t>4109372</t>
-  </si>
-  <si>
-    <t>UWI2420</t>
-  </si>
-  <si>
-    <t>973551637</t>
-  </si>
-  <si>
-    <t>Bruna Pereira</t>
-  </si>
-  <si>
-    <t>7856384</t>
-  </si>
-  <si>
-    <t>HKX3123</t>
-  </si>
-  <si>
-    <t>86303673729</t>
-  </si>
-  <si>
-    <t>AJA6387</t>
-  </si>
-  <si>
-    <t>611552341</t>
+    <t xml:space="preserve">JNI3N98  </t>
+  </si>
+  <si>
+    <t>97349350543</t>
+  </si>
+  <si>
+    <t>Natália Queiroz</t>
+  </si>
+  <si>
+    <t>724173375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZH2H89  </t>
+  </si>
+  <si>
+    <t>99790129109</t>
+  </si>
+  <si>
+    <t>Bruno Pereira</t>
+  </si>
+  <si>
+    <t>22767330763</t>
+  </si>
+  <si>
+    <t>924025688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAY4Y63  </t>
+  </si>
+  <si>
+    <t>82072419977</t>
+  </si>
+  <si>
+    <t>Bruno Ferreira</t>
+  </si>
+  <si>
+    <t>49792393348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOD7D95  </t>
+  </si>
+  <si>
+    <t>47457996097</t>
+  </si>
+  <si>
+    <t>Thiago Xavier</t>
+  </si>
+  <si>
+    <t>85060338154</t>
+  </si>
+  <si>
+    <t>545086235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRO6R13  </t>
+  </si>
+  <si>
+    <t>30969648245</t>
+  </si>
+  <si>
+    <t>Vinicius Klein</t>
+  </si>
+  <si>
+    <t>707232808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBE1E14  </t>
+  </si>
+  <si>
+    <t>36405750598</t>
   </si>
 </sst>
 </file>
@@ -1120,15 +1186,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1170,13 +1240,16 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>35366</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1185,127 +1258,133 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+      <c r="G6">
+        <v>827183</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3.06577371948585E+16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1314,16 +1393,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1360,36 +1436,36 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
         <v>65</v>
+      </c>
+      <c r="D12">
+        <v>7657046205858</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
@@ -1406,105 +1482,111 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
       </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>73</v>
       </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>83</v>
+      <c r="C16">
+        <v>1828</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
       </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
         <v>90</v>
+      </c>
+      <c r="G17">
+        <v>9.1165067878585792E+16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,7 +1594,7 @@
         <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
@@ -1521,7 +1603,7 @@
         <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>94</v>
@@ -1535,7 +1617,7 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>97</v>
@@ -1544,7 +1626,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -1558,93 +1640,93 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" t="s">
-        <v>103</v>
+      <c r="D20">
+        <v>2802</v>
       </c>
       <c r="E20" t="s">
         <v>54</v>
       </c>
       <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
         <v>104</v>
-      </c>
-      <c r="G20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
       </c>
-      <c r="D21" t="s">
-        <v>107</v>
+      <c r="D21">
+        <v>951467929</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
       </c>
       <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
         <v>108</v>
       </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
       <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
         <v>111</v>
       </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>112</v>
       </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
         <v>115</v>
       </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>118</v>
@@ -1658,557 +1740,614 @@
       <c r="F24" t="s">
         <v>120</v>
       </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="G27">
+        <v>6432874829558580</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>148</v>
-      </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
         <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G37" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>191</v>
+      </c>
+      <c r="G38" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39">
+        <v>8767996915885</v>
+      </c>
+      <c r="E39" t="s">
         <v>179</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
       </c>
       <c r="E41" t="s">
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G41" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>210</v>
+      </c>
+      <c r="G42" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>197</v>
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>8.7589391057585792E+16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>198</v>
+        <v>214</v>
+      </c>
+      <c r="G43" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
+      <c r="C44" t="s">
+        <v>217</v>
+      </c>
       <c r="D44" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G46" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>214</v>
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>80084</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>216</v>
+        <v>234</v>
+      </c>
+      <c r="G47" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>239</v>
+      </c>
+      <c r="G48" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" t="s">
-        <v>223</v>
+        <v>242</v>
+      </c>
+      <c r="D49">
+        <v>3139</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>246</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>228</v>
+        <v>248</v>
+      </c>
+      <c r="G50" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>229</v>
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>9390369609358580</v>
+      </c>
+      <c r="D51" t="s">
+        <v>251</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G51" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2217,14 +2356,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116377A2-5F2F-4500-A690-1D2765B7BB90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92289A-7834-4C91-B04F-F35228B3DD14}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
